--- a/medicine/Psychotrope/Dunkelfelder/Dunkelfelder.xlsx
+++ b/medicine/Psychotrope/Dunkelfelder/Dunkelfelder.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le  dunkelfelder  est un cépage de cuve allemand de raisins noirs.
@@ -512,7 +524,9 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cépage est une obtention de G.A. Froelich adopté par l'institut Institut für Rebenzüchtung und Rebenveredlung der Hessischen Forschungsanstalt für Weinbau, Gartenbau, Getränketechnologie und Landespflege à Geisenheim. L'origine génétique est non vérifiée mais ce serait un croisement des cépages Teinturier du Cher x  Portugais bleu réalisé en 1928. Le cépage est autorisé dans de nombreux Länder en Allemagne où il couvre 317 hectares. 
 Il est un peu cultivé en Grande-Bretagne.
@@ -544,7 +558,9 @@
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau cotonneux, rougeâtre
 Feuilles adultes, à 5 lobes, un sinus pétiolaire en lyre plus ou moins fermée, des dents ogivales, moyennes.</t>
@@ -575,7 +591,9 @@
           <t>Aptitudes culturales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maturité est de deuxième  époque moyenne: 15 - 20 jours après le chasselas.
 </t>
@@ -606,7 +624,9 @@
           <t>Potentiel technologique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les grappes  sont moyennes et les baies sont de taille moyenne à grosse. La grappe est cylindrique, aliée et moyennement compacte. Le dunkelfelder est un cépage teinurier. Le cépage donne des vins rouges d'une bonne intensité colorante.
 </t>
@@ -637,7 +657,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le  dunkelfelder  est connu sous les noms de V4, Farbtraube Froelich et Purpur.
 </t>
